--- a/biology/Médecine/Papillite_linguale_familiale/Papillite_linguale_familiale.xlsx
+++ b/biology/Médecine/Papillite_linguale_familiale/Papillite_linguale_familiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La papillite linguale éruptive familiale (PLF) est une hypertrophie bénigne[1] des papilles fongiformes de la pointe et du dos de la langue[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La papillite linguale éruptive familiale (PLF) est une hypertrophie bénigne des papilles fongiformes de la pointe et du dos de la langue.
 Cette affection peut toucher à la fois des enfants et des adultes.
 C'est une inflammation de la langue associée à une infection virale.
 </t>
@@ -513,12 +525,14 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'apparition brutale, la gêne ne passe pas inaperçue en raison de la présence d'une stomatite douloureuse.
 On observe des papilles fongiformes hypertrophiées, associées à une glossite plus ou moins importante.
-On va retrouver dans la moitié des cas, la présence d'adénopathies cervicales (gonflement des ganglions de la nuque notamment)[2] et sous-maxillaires[3].
-Une difficulté à manger, un état légèrement fébrile et une fatigue seraient associés[4].
+On va retrouver dans la moitié des cas, la présence d'adénopathies cervicales (gonflement des ganglions de la nuque notamment) et sous-maxillaires.
+Une difficulté à manger, un état légèrement fébrile et une fatigue seraient associés.
 </t>
         </is>
       </c>
@@ -547,13 +561,15 @@
           <t>Origine et physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine n'est pas complètement élucidée. Elle semble en majorité déclenchée par un virus sans qu'une association claire ne soit établie entre un virus en particulier et la PLF[3].
-La transmission intrafamiliale de l'infection sous-jacente a été confirmé par la multiplication des cas familiaux[1].
-L'étude histologique de la lésion fait apparaitre une infiltration de neutrophiles et une dilatation des vaisseaux. Des cellules inflammatoires sont observées mais aucun indice de la présence bactérienne, virale ou fongique[4]. 
-Ces éléments coïncideraient avec la notion d'exanthème post-infection virale définie comme révélatrice d'une infection sous-jacente qui peut n'avoir aucun lien avec le lieu d'éruption [2].
-Il s'agit donc de ne pas confondre les symptômes liés à l'infection virale et l'expression inflammatoire linguale associée, mais qui peut être décalée dans le temps[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine n'est pas complètement élucidée. Elle semble en majorité déclenchée par un virus sans qu'une association claire ne soit établie entre un virus en particulier et la PLF.
+La transmission intrafamiliale de l'infection sous-jacente a été confirmé par la multiplication des cas familiaux.
+L'étude histologique de la lésion fait apparaitre une infiltration de neutrophiles et une dilatation des vaisseaux. Des cellules inflammatoires sont observées mais aucun indice de la présence bactérienne, virale ou fongique. 
+Ces éléments coïncideraient avec la notion d'exanthème post-infection virale définie comme révélatrice d'une infection sous-jacente qui peut n'avoir aucun lien avec le lieu d'éruption .
+Il s'agit donc de ne pas confondre les symptômes liés à l'infection virale et l'expression inflammatoire linguale associée, mais qui peut être décalée dans le temps.
 </t>
         </is>
       </c>
@@ -582,11 +598,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La guérison semble spontanée en maximum 15 jours[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La guérison semble spontanée en maximum 15 jours.
 La PLF est généralement bénigne.
-Le traitement symptomatique conseillé est généralement celui de l'hygiène buccale. Des bains de bouche de solution de bicarbonate de sodium 1,4 % semblent atténuer l'irritation ressentie[1].
+Le traitement symptomatique conseillé est généralement celui de l'hygiène buccale. Des bains de bouche de solution de bicarbonate de sodium 1,4 % semblent atténuer l'irritation ressentie.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La PLF n'est pas associée à des vésicules (herpès, etc.), ni à des érosions ou encore à une langue géographique.
 A la différence de la mycose buccale (muguet), le PLF ne fait pas apparaitre de dépôt blanc caractéristique.
